--- a/user-data/oda-per-poor-person/oda-per-poor-person.xlsx
+++ b/user-data/oda-per-poor-person/oda-per-poor-person.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="311">
   <si>
     <t>id</t>
   </si>
@@ -928,9 +928,6 @@
     <t>Source: Development Initiatives based on OECD-DAC data</t>
   </si>
   <si>
-    <t>Source-link: NA</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -1313,32 +1310,32 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13">
@@ -1354,11 +1351,6 @@
     <row r="15">
       <c r="A15" t="s">
         <v>310</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>311</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/oda-per-poor-person/oda-per-poor-person.xlsx
+++ b/user-data/oda-per-poor-person/oda-per-poor-person.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Data-wide" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-value" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -934,7 +934,7 @@
     <t>Notes:</t>
   </si>
   <si>
-    <t>On the 'Data-wide' sheet, we have provided the indicator in a wide format. The values you see listed there are only from the 'value' column.</t>
+    <t>On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>

--- a/user-data/oda-per-poor-person/oda-per-poor-person.xlsx
+++ b/user-data/oda-per-poor-person/oda-per-poor-person.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="312">
   <si>
     <t>id</t>
   </si>
@@ -940,7 +940,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1353,6 +1356,11 @@
         <v>310</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>311</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/user-data/oda-per-poor-person/oda-per-poor-person.xlsx
+++ b/user-data/oda-per-poor-person/oda-per-poor-person.xlsx
@@ -55,7 +55,7 @@
     <t>AG</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Antigua &amp; Barbuda</t>
   </si>
   <si>
     <t>AR</t>
@@ -115,7 +115,7 @@
     <t>BA</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
+    <t>Bosnia &amp; Herzegovina</t>
   </si>
   <si>
     <t>BW</t>
@@ -140,12 +140,6 @@
   </si>
   <si>
     <t>Burundi</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>CÃ´te d'Ivoire</t>
   </si>
   <si>
     <t>KH</t>
@@ -212,6 +206,12 @@
   </si>
   <si>
     <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
   </si>
   <si>
     <t>HR</t>
@@ -637,7 +637,7 @@
     <t>VC</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
+    <t>Saint Vincent &amp; the Grenadines</t>
   </si>
   <si>
     <t>WS</t>
@@ -649,7 +649,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>SN</t>
@@ -769,7 +769,7 @@
     <t>TT</t>
   </si>
   <si>
-    <t>Trinidad and Tobago</t>
+    <t>Trinidad &amp; Tobago</t>
   </si>
   <si>
     <t>TN</t>
@@ -931,7 +931,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -4890,7 +4890,7 @@
         <v>2000</v>
       </c>
       <c r="D268" t="n">
-        <v>168.683981593069</v>
+        <v>136.619938169377</v>
       </c>
     </row>
     <row r="269">
@@ -4904,7 +4904,7 @@
         <v>2001</v>
       </c>
       <c r="D269" t="n">
-        <v>110.736075872901</v>
+        <v>152.547530166607</v>
       </c>
     </row>
     <row r="270">
@@ -4918,7 +4918,7 @@
         <v>2002</v>
       </c>
       <c r="D270" t="n">
-        <v>445.801462082663</v>
+        <v>171.931098567995</v>
       </c>
     </row>
     <row r="271">
@@ -4932,7 +4932,7 @@
         <v>2003</v>
       </c>
       <c r="D271" t="n">
-        <v>111.092688907891</v>
+        <v>163.967935384046</v>
       </c>
     </row>
     <row r="272">
@@ -4946,7 +4946,7 @@
         <v>2004</v>
       </c>
       <c r="D272" t="n">
-        <v>76.5624982595443</v>
+        <v>144.873644073781</v>
       </c>
     </row>
     <row r="273">
@@ -4960,7 +4960,7 @@
         <v>2005</v>
       </c>
       <c r="D273" t="n">
-        <v>46.7698726313441</v>
+        <v>156.649946647362</v>
       </c>
     </row>
     <row r="274">
@@ -4974,7 +4974,7 @@
         <v>2006</v>
       </c>
       <c r="D274" t="n">
-        <v>65.3607487575805</v>
+        <v>176.048409679076</v>
       </c>
     </row>
     <row r="275">
@@ -4988,7 +4988,7 @@
         <v>2007</v>
       </c>
       <c r="D275" t="n">
-        <v>50.2658173879085</v>
+        <v>182.141090827108</v>
       </c>
     </row>
     <row r="276">
@@ -5002,7 +5002,7 @@
         <v>2008</v>
       </c>
       <c r="D276" t="n">
-        <v>121.814936606468</v>
+        <v>277.181937735342</v>
       </c>
     </row>
     <row r="277">
@@ -5015,7 +5015,9 @@
       <c r="C277" t="n">
         <v>2009</v>
       </c>
-      <c r="D277"/>
+      <c r="D277" t="n">
+        <v>440.442663769059</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
@@ -5027,7 +5029,9 @@
       <c r="C278" t="n">
         <v>2010</v>
       </c>
-      <c r="D278"/>
+      <c r="D278" t="n">
+        <v>498.848280929729</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
@@ -5039,7 +5043,9 @@
       <c r="C279" t="n">
         <v>2011</v>
       </c>
-      <c r="D279"/>
+      <c r="D279" t="n">
+        <v>581.890274747454</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
@@ -5076,7 +5082,7 @@
         <v>2000</v>
       </c>
       <c r="D282" t="n">
-        <v>136.619938169377</v>
+        <v>185.440860069863</v>
       </c>
     </row>
     <row r="283">
@@ -5090,7 +5096,7 @@
         <v>2001</v>
       </c>
       <c r="D283" t="n">
-        <v>152.547530166607</v>
+        <v>246.092690926978</v>
       </c>
     </row>
     <row r="284">
@@ -5104,7 +5110,7 @@
         <v>2002</v>
       </c>
       <c r="D284" t="n">
-        <v>171.931098567995</v>
+        <v>297.753992813416</v>
       </c>
     </row>
     <row r="285">
@@ -5118,7 +5124,7 @@
         <v>2003</v>
       </c>
       <c r="D285" t="n">
-        <v>163.967935384046</v>
+        <v>319.078584976701</v>
       </c>
     </row>
     <row r="286">
@@ -5132,7 +5138,7 @@
         <v>2004</v>
       </c>
       <c r="D286" t="n">
-        <v>144.873644073781</v>
+        <v>257.658839324904</v>
       </c>
     </row>
     <row r="287">
@@ -5146,7 +5152,7 @@
         <v>2005</v>
       </c>
       <c r="D287" t="n">
-        <v>156.649946647362</v>
+        <v>160.997364926297</v>
       </c>
     </row>
     <row r="288">
@@ -5160,7 +5166,7 @@
         <v>2006</v>
       </c>
       <c r="D288" t="n">
-        <v>176.048409679076</v>
+        <v>792.397469004242</v>
       </c>
     </row>
     <row r="289">
@@ -5174,7 +5180,7 @@
         <v>2007</v>
       </c>
       <c r="D289" t="n">
-        <v>182.141090827108</v>
+        <v>414.071396965596</v>
       </c>
     </row>
     <row r="290">
@@ -5187,9 +5193,7 @@
       <c r="C290" t="n">
         <v>2008</v>
       </c>
-      <c r="D290" t="n">
-        <v>277.181937735342</v>
-      </c>
+      <c r="D290"/>
     </row>
     <row r="291">
       <c r="A291" t="s">
@@ -5201,9 +5205,7 @@
       <c r="C291" t="n">
         <v>2009</v>
       </c>
-      <c r="D291" t="n">
-        <v>440.442663769059</v>
-      </c>
+      <c r="D291"/>
     </row>
     <row r="292">
       <c r="A292" t="s">
@@ -5215,9 +5217,7 @@
       <c r="C292" t="n">
         <v>2010</v>
       </c>
-      <c r="D292" t="n">
-        <v>498.848280929729</v>
-      </c>
+      <c r="D292"/>
     </row>
     <row r="293">
       <c r="A293" t="s">
@@ -5229,9 +5229,7 @@
       <c r="C293" t="n">
         <v>2011</v>
       </c>
-      <c r="D293" t="n">
-        <v>581.890274747454</v>
-      </c>
+      <c r="D293"/>
     </row>
     <row r="294">
       <c r="A294" t="s">
@@ -5267,9 +5265,7 @@
       <c r="C296" t="n">
         <v>2000</v>
       </c>
-      <c r="D296" t="n">
-        <v>185.440860069863</v>
-      </c>
+      <c r="D296"/>
     </row>
     <row r="297">
       <c r="A297" t="s">
@@ -5281,9 +5277,7 @@
       <c r="C297" t="n">
         <v>2001</v>
       </c>
-      <c r="D297" t="n">
-        <v>246.092690926978</v>
-      </c>
+      <c r="D297"/>
     </row>
     <row r="298">
       <c r="A298" t="s">
@@ -5296,7 +5290,7 @@
         <v>2002</v>
       </c>
       <c r="D298" t="n">
-        <v>297.753992813416</v>
+        <v>1611.59928608297</v>
       </c>
     </row>
     <row r="299">
@@ -5310,7 +5304,7 @@
         <v>2003</v>
       </c>
       <c r="D299" t="n">
-        <v>319.078584976701</v>
+        <v>2237.22757189212</v>
       </c>
     </row>
     <row r="300">
@@ -5324,7 +5318,7 @@
         <v>2004</v>
       </c>
       <c r="D300" t="n">
-        <v>257.658839324904</v>
+        <v>2175.67662074271</v>
       </c>
     </row>
     <row r="301">
@@ -5338,7 +5332,7 @@
         <v>2005</v>
       </c>
       <c r="D301" t="n">
-        <v>160.997364926297</v>
+        <v>2612.61442106954</v>
       </c>
     </row>
     <row r="302">
@@ -5352,7 +5346,7 @@
         <v>2006</v>
       </c>
       <c r="D302" t="n">
-        <v>792.397469004242</v>
+        <v>2369.35474171628</v>
       </c>
     </row>
     <row r="303">
@@ -5366,7 +5360,7 @@
         <v>2007</v>
       </c>
       <c r="D303" t="n">
-        <v>414.071396965596</v>
+        <v>2806.2730405031</v>
       </c>
     </row>
     <row r="304">
@@ -5451,7 +5445,9 @@
       <c r="C310" t="n">
         <v>2000</v>
       </c>
-      <c r="D310"/>
+      <c r="D310" t="n">
+        <v>56.0929130583302</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
@@ -5463,7 +5459,9 @@
       <c r="C311" t="n">
         <v>2001</v>
       </c>
-      <c r="D311"/>
+      <c r="D311" t="n">
+        <v>59.7892210097024</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
@@ -5476,7 +5474,7 @@
         <v>2002</v>
       </c>
       <c r="D312" t="n">
-        <v>1611.59928608297</v>
+        <v>42.8077053119083</v>
       </c>
     </row>
     <row r="313">
@@ -5490,7 +5488,7 @@
         <v>2003</v>
       </c>
       <c r="D313" t="n">
-        <v>2237.22757189212</v>
+        <v>32.1822582284326</v>
       </c>
     </row>
     <row r="314">
@@ -5504,7 +5502,7 @@
         <v>2004</v>
       </c>
       <c r="D314" t="n">
-        <v>2175.67662074271</v>
+        <v>57.7986618186288</v>
       </c>
     </row>
     <row r="315">
@@ -5518,7 +5516,7 @@
         <v>2005</v>
       </c>
       <c r="D315" t="n">
-        <v>2612.61442106954</v>
+        <v>46.991156264391</v>
       </c>
     </row>
     <row r="316">
@@ -5532,7 +5530,7 @@
         <v>2006</v>
       </c>
       <c r="D316" t="n">
-        <v>2369.35474171628</v>
+        <v>87.4367751462055</v>
       </c>
     </row>
     <row r="317">
@@ -5546,7 +5544,7 @@
         <v>2007</v>
       </c>
       <c r="D317" t="n">
-        <v>2806.2730405031</v>
+        <v>94.1663101671716</v>
       </c>
     </row>
     <row r="318">
@@ -5559,7 +5557,9 @@
       <c r="C318" t="n">
         <v>2008</v>
       </c>
-      <c r="D318"/>
+      <c r="D318" t="n">
+        <v>110.784234867142</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
@@ -5631,9 +5631,7 @@
       <c r="C324" t="n">
         <v>2000</v>
       </c>
-      <c r="D324" t="n">
-        <v>56.0929130583302</v>
-      </c>
+      <c r="D324"/>
     </row>
     <row r="325">
       <c r="A325" t="s">
@@ -5645,9 +5643,7 @@
       <c r="C325" t="n">
         <v>2001</v>
       </c>
-      <c r="D325" t="n">
-        <v>59.7892210097024</v>
-      </c>
+      <c r="D325"/>
     </row>
     <row r="326">
       <c r="A326" t="s">
@@ -5660,7 +5656,7 @@
         <v>2002</v>
       </c>
       <c r="D326" t="n">
-        <v>42.8077053119083</v>
+        <v>83.2691923837662</v>
       </c>
     </row>
     <row r="327">
@@ -5674,7 +5670,7 @@
         <v>2003</v>
       </c>
       <c r="D327" t="n">
-        <v>32.1822582284326</v>
+        <v>77.1960667409165</v>
       </c>
     </row>
     <row r="328">
@@ -5688,7 +5684,7 @@
         <v>2004</v>
       </c>
       <c r="D328" t="n">
-        <v>57.7986618186288</v>
+        <v>90.8352314952973</v>
       </c>
     </row>
     <row r="329">
@@ -5702,7 +5698,7 @@
         <v>2005</v>
       </c>
       <c r="D329" t="n">
-        <v>46.991156264391</v>
+        <v>106.77305077097</v>
       </c>
     </row>
     <row r="330">
@@ -5716,7 +5712,7 @@
         <v>2006</v>
       </c>
       <c r="D330" t="n">
-        <v>87.4367751462055</v>
+        <v>82.8959430540394</v>
       </c>
     </row>
     <row r="331">
@@ -5730,7 +5726,7 @@
         <v>2007</v>
       </c>
       <c r="D331" t="n">
-        <v>94.1663101671716</v>
+        <v>94.1876671748786</v>
       </c>
     </row>
     <row r="332">
@@ -5744,7 +5740,7 @@
         <v>2008</v>
       </c>
       <c r="D332" t="n">
-        <v>110.784234867142</v>
+        <v>116.774180088649</v>
       </c>
     </row>
     <row r="333">
@@ -5757,7 +5753,9 @@
       <c r="C333" t="n">
         <v>2009</v>
       </c>
-      <c r="D333"/>
+      <c r="D333" t="n">
+        <v>148.852576492787</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="s">
@@ -5769,7 +5767,9 @@
       <c r="C334" t="n">
         <v>2010</v>
       </c>
-      <c r="D334"/>
+      <c r="D334" t="n">
+        <v>138.163793493765</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="s">
@@ -5781,7 +5781,9 @@
       <c r="C335" t="n">
         <v>2011</v>
       </c>
-      <c r="D335"/>
+      <c r="D335" t="n">
+        <v>132.523534942142</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="s">
@@ -5817,7 +5819,9 @@
       <c r="C338" t="n">
         <v>2000</v>
       </c>
-      <c r="D338"/>
+      <c r="D338" t="n">
+        <v>372.853857884381</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="s">
@@ -5829,7 +5833,9 @@
       <c r="C339" t="n">
         <v>2001</v>
       </c>
-      <c r="D339"/>
+      <c r="D339" t="n">
+        <v>590.411270069396</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="s">
@@ -5842,7 +5848,7 @@
         <v>2002</v>
       </c>
       <c r="D340" t="n">
-        <v>83.2691923837662</v>
+        <v>453.028000039976</v>
       </c>
     </row>
     <row r="341">
@@ -5856,7 +5862,7 @@
         <v>2003</v>
       </c>
       <c r="D341" t="n">
-        <v>77.1960667409165</v>
+        <v>486.719946977599</v>
       </c>
     </row>
     <row r="342">
@@ -5870,7 +5876,7 @@
         <v>2004</v>
       </c>
       <c r="D342" t="n">
-        <v>90.8352314952973</v>
+        <v>554.814754116</v>
       </c>
     </row>
     <row r="343">
@@ -5884,7 +5890,7 @@
         <v>2005</v>
       </c>
       <c r="D343" t="n">
-        <v>106.77305077097</v>
+        <v>1037.26828706867</v>
       </c>
     </row>
     <row r="344">
@@ -5898,7 +5904,7 @@
         <v>2006</v>
       </c>
       <c r="D344" t="n">
-        <v>82.8959430540394</v>
+        <v>785.797505499209</v>
       </c>
     </row>
     <row r="345">
@@ -5912,7 +5918,7 @@
         <v>2007</v>
       </c>
       <c r="D345" t="n">
-        <v>94.1876671748786</v>
+        <v>722.960081208778</v>
       </c>
     </row>
     <row r="346">
@@ -5926,7 +5932,7 @@
         <v>2008</v>
       </c>
       <c r="D346" t="n">
-        <v>116.774180088649</v>
+        <v>657.412832377557</v>
       </c>
     </row>
     <row r="347">
@@ -5940,7 +5946,7 @@
         <v>2009</v>
       </c>
       <c r="D347" t="n">
-        <v>148.852576492787</v>
+        <v>499.987038573206</v>
       </c>
     </row>
     <row r="348">
@@ -5954,7 +5960,7 @@
         <v>2010</v>
       </c>
       <c r="D348" t="n">
-        <v>138.163793493765</v>
+        <v>1258.95394684589</v>
       </c>
     </row>
     <row r="349">
@@ -5968,7 +5974,7 @@
         <v>2011</v>
       </c>
       <c r="D349" t="n">
-        <v>132.523534942142</v>
+        <v>1217.59639392061</v>
       </c>
     </row>
     <row r="350">
@@ -6006,7 +6012,7 @@
         <v>2000</v>
       </c>
       <c r="D352" t="n">
-        <v>372.853857884381</v>
+        <v>7.83776595802144</v>
       </c>
     </row>
     <row r="353">
@@ -6020,7 +6026,7 @@
         <v>2001</v>
       </c>
       <c r="D353" t="n">
-        <v>590.411270069396</v>
+        <v>8.74562444898142</v>
       </c>
     </row>
     <row r="354">
@@ -6034,7 +6040,7 @@
         <v>2002</v>
       </c>
       <c r="D354" t="n">
-        <v>453.028000039976</v>
+        <v>9.81766357557228</v>
       </c>
     </row>
     <row r="355">
@@ -6048,7 +6054,7 @@
         <v>2003</v>
       </c>
       <c r="D355" t="n">
-        <v>486.719946977599</v>
+        <v>10.6024792208941</v>
       </c>
     </row>
     <row r="356">
@@ -6062,7 +6068,7 @@
         <v>2004</v>
       </c>
       <c r="D356" t="n">
-        <v>554.814754116</v>
+        <v>13.8991276014533</v>
       </c>
     </row>
     <row r="357">
@@ -6076,7 +6082,7 @@
         <v>2005</v>
       </c>
       <c r="D357" t="n">
-        <v>1037.26828706867</v>
+        <v>18.5456788407294</v>
       </c>
     </row>
     <row r="358">
@@ -6090,7 +6096,7 @@
         <v>2006</v>
       </c>
       <c r="D358" t="n">
-        <v>785.797505499209</v>
+        <v>17.1552114261196</v>
       </c>
     </row>
     <row r="359">
@@ -6104,7 +6110,7 @@
         <v>2007</v>
       </c>
       <c r="D359" t="n">
-        <v>722.960081208778</v>
+        <v>19.5685265105146</v>
       </c>
     </row>
     <row r="360">
@@ -6118,7 +6124,7 @@
         <v>2008</v>
       </c>
       <c r="D360" t="n">
-        <v>657.412832377557</v>
+        <v>20.5951795701657</v>
       </c>
     </row>
     <row r="361">
@@ -6132,7 +6138,7 @@
         <v>2009</v>
       </c>
       <c r="D361" t="n">
-        <v>499.987038573206</v>
+        <v>21.4976549490399</v>
       </c>
     </row>
     <row r="362">
@@ -6146,7 +6152,7 @@
         <v>2010</v>
       </c>
       <c r="D362" t="n">
-        <v>1258.95394684589</v>
+        <v>22.2530897987204</v>
       </c>
     </row>
     <row r="363">
@@ -6160,7 +6166,7 @@
         <v>2011</v>
       </c>
       <c r="D363" t="n">
-        <v>1217.59639392061</v>
+        <v>30.4675691047069</v>
       </c>
     </row>
     <row r="364">
@@ -6198,7 +6204,7 @@
         <v>2000</v>
       </c>
       <c r="D366" t="n">
-        <v>7.83776595802144</v>
+        <v>57.6253928214129</v>
       </c>
     </row>
     <row r="367">
@@ -6212,7 +6218,7 @@
         <v>2001</v>
       </c>
       <c r="D367" t="n">
-        <v>8.74562444898142</v>
+        <v>92.5414730722518</v>
       </c>
     </row>
     <row r="368">
@@ -6226,7 +6232,7 @@
         <v>2002</v>
       </c>
       <c r="D368" t="n">
-        <v>9.81766357557228</v>
+        <v>160.384857629497</v>
       </c>
     </row>
     <row r="369">
@@ -6240,7 +6246,7 @@
         <v>2003</v>
       </c>
       <c r="D369" t="n">
-        <v>10.6024792208941</v>
+        <v>251.928123460172</v>
       </c>
     </row>
     <row r="370">
@@ -6254,7 +6260,7 @@
         <v>2004</v>
       </c>
       <c r="D370" t="n">
-        <v>13.8991276014533</v>
+        <v>194.252211373063</v>
       </c>
     </row>
     <row r="371">
@@ -6268,7 +6274,7 @@
         <v>2005</v>
       </c>
       <c r="D371" t="n">
-        <v>18.5456788407294</v>
+        <v>250.417414203261</v>
       </c>
     </row>
     <row r="372">
@@ -6282,7 +6288,7 @@
         <v>2006</v>
       </c>
       <c r="D372" t="n">
-        <v>17.1552114261196</v>
+        <v>248.634063146282</v>
       </c>
     </row>
     <row r="373">
@@ -6296,7 +6302,7 @@
         <v>2007</v>
       </c>
       <c r="D373" t="n">
-        <v>19.5685265105146</v>
+        <v>213.726146021572</v>
       </c>
     </row>
     <row r="374">
@@ -6310,7 +6316,7 @@
         <v>2008</v>
       </c>
       <c r="D374" t="n">
-        <v>20.5951795701657</v>
+        <v>277.622286006932</v>
       </c>
     </row>
     <row r="375">
@@ -6324,7 +6330,7 @@
         <v>2009</v>
       </c>
       <c r="D375" t="n">
-        <v>21.4976549490399</v>
+        <v>352.496913619377</v>
       </c>
     </row>
     <row r="376">
@@ -6338,7 +6344,7 @@
         <v>2010</v>
       </c>
       <c r="D376" t="n">
-        <v>22.2530897987204</v>
+        <v>355.958599228552</v>
       </c>
     </row>
     <row r="377">
@@ -6352,7 +6358,7 @@
         <v>2011</v>
       </c>
       <c r="D377" t="n">
-        <v>30.4675691047069</v>
+        <v>456.781957922147</v>
       </c>
     </row>
     <row r="378">
@@ -6365,7 +6371,9 @@
       <c r="C378" t="n">
         <v>2012</v>
       </c>
-      <c r="D378"/>
+      <c r="D378" t="n">
+        <v>307.999804466357</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="s">
@@ -6389,9 +6397,7 @@
       <c r="C380" t="n">
         <v>2000</v>
       </c>
-      <c r="D380" t="n">
-        <v>57.6253928214129</v>
-      </c>
+      <c r="D380"/>
     </row>
     <row r="381">
       <c r="A381" t="s">
@@ -6403,9 +6409,7 @@
       <c r="C381" t="n">
         <v>2001</v>
       </c>
-      <c r="D381" t="n">
-        <v>92.5414730722518</v>
-      </c>
+      <c r="D381"/>
     </row>
     <row r="382">
       <c r="A382" t="s">
@@ -6417,9 +6421,7 @@
       <c r="C382" t="n">
         <v>2002</v>
       </c>
-      <c r="D382" t="n">
-        <v>160.384857629497</v>
-      </c>
+      <c r="D382"/>
     </row>
     <row r="383">
       <c r="A383" t="s">
@@ -6431,9 +6433,7 @@
       <c r="C383" t="n">
         <v>2003</v>
       </c>
-      <c r="D383" t="n">
-        <v>251.928123460172</v>
-      </c>
+      <c r="D383"/>
     </row>
     <row r="384">
       <c r="A384" t="s">
@@ -6446,7 +6446,7 @@
         <v>2004</v>
       </c>
       <c r="D384" t="n">
-        <v>194.252211373063</v>
+        <v>133.890546215645</v>
       </c>
     </row>
     <row r="385">
@@ -6459,9 +6459,7 @@
       <c r="C385" t="n">
         <v>2005</v>
       </c>
-      <c r="D385" t="n">
-        <v>250.417414203261</v>
-      </c>
+      <c r="D385"/>
     </row>
     <row r="386">
       <c r="A386" t="s">
@@ -6473,9 +6471,7 @@
       <c r="C386" t="n">
         <v>2006</v>
       </c>
-      <c r="D386" t="n">
-        <v>248.634063146282</v>
-      </c>
+      <c r="D386"/>
     </row>
     <row r="387">
       <c r="A387" t="s">
@@ -6487,9 +6483,7 @@
       <c r="C387" t="n">
         <v>2007</v>
       </c>
-      <c r="D387" t="n">
-        <v>213.726146021572</v>
-      </c>
+      <c r="D387"/>
     </row>
     <row r="388">
       <c r="A388" t="s">
@@ -6501,9 +6495,7 @@
       <c r="C388" t="n">
         <v>2008</v>
       </c>
-      <c r="D388" t="n">
-        <v>277.622286006932</v>
-      </c>
+      <c r="D388"/>
     </row>
     <row r="389">
       <c r="A389" t="s">
@@ -6515,9 +6507,7 @@
       <c r="C389" t="n">
         <v>2009</v>
       </c>
-      <c r="D389" t="n">
-        <v>352.496913619377</v>
-      </c>
+      <c r="D389"/>
     </row>
     <row r="390">
       <c r="A390" t="s">
@@ -6529,9 +6519,7 @@
       <c r="C390" t="n">
         <v>2010</v>
       </c>
-      <c r="D390" t="n">
-        <v>355.958599228552</v>
-      </c>
+      <c r="D390"/>
     </row>
     <row r="391">
       <c r="A391" t="s">
@@ -6543,9 +6531,7 @@
       <c r="C391" t="n">
         <v>2011</v>
       </c>
-      <c r="D391" t="n">
-        <v>456.781957922147</v>
-      </c>
+      <c r="D391"/>
     </row>
     <row r="392">
       <c r="A392" t="s">
@@ -6557,9 +6543,7 @@
       <c r="C392" t="n">
         <v>2012</v>
       </c>
-      <c r="D392" t="n">
-        <v>307.999804466357</v>
-      </c>
+      <c r="D392"/>
     </row>
     <row r="393">
       <c r="A393" t="s">
@@ -6631,9 +6615,7 @@
       <c r="C398" t="n">
         <v>2004</v>
       </c>
-      <c r="D398" t="n">
-        <v>133.890546215645</v>
-      </c>
+      <c r="D398"/>
     </row>
     <row r="399">
       <c r="A399" t="s">
@@ -6645,7 +6627,9 @@
       <c r="C399" t="n">
         <v>2005</v>
       </c>
-      <c r="D399"/>
+      <c r="D399" t="n">
+        <v>990.261263001076</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="s">
@@ -6657,7 +6641,9 @@
       <c r="C400" t="n">
         <v>2006</v>
       </c>
-      <c r="D400"/>
+      <c r="D400" t="n">
+        <v>276.77456800385</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="s">
@@ -6669,7 +6655,9 @@
       <c r="C401" t="n">
         <v>2007</v>
       </c>
-      <c r="D401"/>
+      <c r="D401" t="n">
+        <v>95.1883168491256</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="s">
@@ -6681,7 +6669,9 @@
       <c r="C402" t="n">
         <v>2008</v>
       </c>
-      <c r="D402"/>
+      <c r="D402" t="n">
+        <v>313.643785184298</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="s">
@@ -6693,7 +6683,9 @@
       <c r="C403" t="n">
         <v>2009</v>
       </c>
-      <c r="D403"/>
+      <c r="D403" t="n">
+        <v>214.49562443868</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="s">
@@ -6705,7 +6697,9 @@
       <c r="C404" t="n">
         <v>2010</v>
       </c>
-      <c r="D404"/>
+      <c r="D404" t="n">
+        <v>1157.52902437086</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="s">
@@ -6717,7 +6711,9 @@
       <c r="C405" t="n">
         <v>2011</v>
       </c>
-      <c r="D405"/>
+      <c r="D405" t="n">
+        <v>255.299477173516</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="s">
@@ -6753,7 +6749,9 @@
       <c r="C408" t="n">
         <v>2000</v>
       </c>
-      <c r="D408"/>
+      <c r="D408" t="n">
+        <v>567.372873354859</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="s">
@@ -6765,7 +6763,9 @@
       <c r="C409" t="n">
         <v>2001</v>
       </c>
-      <c r="D409"/>
+      <c r="D409" t="n">
+        <v>483.494123097025</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="s">
@@ -6777,7 +6777,9 @@
       <c r="C410" t="n">
         <v>2002</v>
       </c>
-      <c r="D410"/>
+      <c r="D410" t="n">
+        <v>395.642149993219</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="s">
@@ -6789,7 +6791,9 @@
       <c r="C411" t="n">
         <v>2003</v>
       </c>
-      <c r="D411"/>
+      <c r="D411" t="n">
+        <v>482.043472743424</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="s">
@@ -6801,7 +6805,9 @@
       <c r="C412" t="n">
         <v>2004</v>
       </c>
-      <c r="D412"/>
+      <c r="D412" t="n">
+        <v>467.344020022645</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="s">
@@ -6814,7 +6820,7 @@
         <v>2005</v>
       </c>
       <c r="D413" t="n">
-        <v>990.261263001076</v>
+        <v>553.711401523836</v>
       </c>
     </row>
     <row r="414">
@@ -6828,7 +6834,7 @@
         <v>2006</v>
       </c>
       <c r="D414" t="n">
-        <v>276.77456800385</v>
+        <v>538.576745144454</v>
       </c>
     </row>
     <row r="415">
@@ -6842,7 +6848,7 @@
         <v>2007</v>
       </c>
       <c r="D415" t="n">
-        <v>95.1883168491256</v>
+        <v>1666.14469151268</v>
       </c>
     </row>
     <row r="416">
@@ -6856,7 +6862,7 @@
         <v>2008</v>
       </c>
       <c r="D416" t="n">
-        <v>313.643785184298</v>
+        <v>1180.64518699109</v>
       </c>
     </row>
     <row r="417">
@@ -6870,7 +6876,7 @@
         <v>2009</v>
       </c>
       <c r="D417" t="n">
-        <v>214.49562443868</v>
+        <v>1175.93303988471</v>
       </c>
     </row>
     <row r="418">
@@ -6884,7 +6890,7 @@
         <v>2010</v>
       </c>
       <c r="D418" t="n">
-        <v>1157.52902437086</v>
+        <v>3005.11619991039</v>
       </c>
     </row>
     <row r="419">
@@ -6898,7 +6904,7 @@
         <v>2011</v>
       </c>
       <c r="D419" t="n">
-        <v>255.299477173516</v>
+        <v>1197.09469153515</v>
       </c>
     </row>
     <row r="420">
@@ -6911,7 +6917,9 @@
       <c r="C420" t="n">
         <v>2012</v>
       </c>
-      <c r="D420"/>
+      <c r="D420" t="n">
+        <v>1029.107353269</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="s">
@@ -6936,7 +6944,7 @@
         <v>2000</v>
       </c>
       <c r="D422" t="n">
-        <v>567.372873354859</v>
+        <v>168.683981593069</v>
       </c>
     </row>
     <row r="423">
@@ -6950,7 +6958,7 @@
         <v>2001</v>
       </c>
       <c r="D423" t="n">
-        <v>483.494123097025</v>
+        <v>110.736075872901</v>
       </c>
     </row>
     <row r="424">
@@ -6964,7 +6972,7 @@
         <v>2002</v>
       </c>
       <c r="D424" t="n">
-        <v>395.642149993219</v>
+        <v>445.801462082663</v>
       </c>
     </row>
     <row r="425">
@@ -6978,7 +6986,7 @@
         <v>2003</v>
       </c>
       <c r="D425" t="n">
-        <v>482.043472743424</v>
+        <v>111.092688907891</v>
       </c>
     </row>
     <row r="426">
@@ -6992,7 +7000,7 @@
         <v>2004</v>
       </c>
       <c r="D426" t="n">
-        <v>467.344020022645</v>
+        <v>76.5624982595443</v>
       </c>
     </row>
     <row r="427">
@@ -7006,7 +7014,7 @@
         <v>2005</v>
       </c>
       <c r="D427" t="n">
-        <v>553.711401523836</v>
+        <v>46.7698726313441</v>
       </c>
     </row>
     <row r="428">
@@ -7020,7 +7028,7 @@
         <v>2006</v>
       </c>
       <c r="D428" t="n">
-        <v>538.576745144454</v>
+        <v>65.3607487575805</v>
       </c>
     </row>
     <row r="429">
@@ -7034,7 +7042,7 @@
         <v>2007</v>
       </c>
       <c r="D429" t="n">
-        <v>1666.14469151268</v>
+        <v>50.2658173879085</v>
       </c>
     </row>
     <row r="430">
@@ -7048,7 +7056,7 @@
         <v>2008</v>
       </c>
       <c r="D430" t="n">
-        <v>1180.64518699109</v>
+        <v>121.814936606468</v>
       </c>
     </row>
     <row r="431">
@@ -7061,9 +7069,7 @@
       <c r="C431" t="n">
         <v>2009</v>
       </c>
-      <c r="D431" t="n">
-        <v>1175.93303988471</v>
-      </c>
+      <c r="D431"/>
     </row>
     <row r="432">
       <c r="A432" t="s">
@@ -7075,9 +7081,7 @@
       <c r="C432" t="n">
         <v>2010</v>
       </c>
-      <c r="D432" t="n">
-        <v>3005.11619991039</v>
-      </c>
+      <c r="D432"/>
     </row>
     <row r="433">
       <c r="A433" t="s">
@@ -7089,9 +7093,7 @@
       <c r="C433" t="n">
         <v>2011</v>
       </c>
-      <c r="D433" t="n">
-        <v>1197.09469153515</v>
-      </c>
+      <c r="D433"/>
     </row>
     <row r="434">
       <c r="A434" t="s">
@@ -7103,9 +7105,7 @@
       <c r="C434" t="n">
         <v>2012</v>
       </c>
-      <c r="D434" t="n">
-        <v>1029.107353269</v>
-      </c>
+      <c r="D434"/>
     </row>
     <row r="435">
       <c r="A435" t="s">
@@ -27317,35 +27317,41 @@
         <v>43</v>
       </c>
       <c r="C21" t="n">
-        <v>168.683981593069</v>
+        <v>136.619938169377</v>
       </c>
       <c r="D21" t="n">
-        <v>110.736075872901</v>
+        <v>152.547530166607</v>
       </c>
       <c r="E21" t="n">
-        <v>445.801462082663</v>
+        <v>171.931098567995</v>
       </c>
       <c r="F21" t="n">
-        <v>111.092688907891</v>
+        <v>163.967935384046</v>
       </c>
       <c r="G21" t="n">
-        <v>76.5624982595443</v>
+        <v>144.873644073781</v>
       </c>
       <c r="H21" t="n">
-        <v>46.7698726313441</v>
+        <v>156.649946647362</v>
       </c>
       <c r="I21" t="n">
-        <v>65.3607487575805</v>
+        <v>176.048409679076</v>
       </c>
       <c r="J21" t="n">
-        <v>50.2658173879085</v>
+        <v>182.141090827108</v>
       </c>
       <c r="K21" t="n">
-        <v>121.814936606468</v>
-      </c>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
+        <v>277.181937735342</v>
+      </c>
+      <c r="L21" t="n">
+        <v>440.442663769059</v>
+      </c>
+      <c r="M21" t="n">
+        <v>498.848280929729</v>
+      </c>
+      <c r="N21" t="n">
+        <v>581.890274747454</v>
+      </c>
       <c r="O21"/>
       <c r="P21"/>
     </row>
@@ -27357,41 +27363,33 @@
         <v>45</v>
       </c>
       <c r="C22" t="n">
-        <v>136.619938169377</v>
+        <v>185.440860069863</v>
       </c>
       <c r="D22" t="n">
-        <v>152.547530166607</v>
+        <v>246.092690926978</v>
       </c>
       <c r="E22" t="n">
-        <v>171.931098567995</v>
+        <v>297.753992813416</v>
       </c>
       <c r="F22" t="n">
-        <v>163.967935384046</v>
+        <v>319.078584976701</v>
       </c>
       <c r="G22" t="n">
-        <v>144.873644073781</v>
+        <v>257.658839324904</v>
       </c>
       <c r="H22" t="n">
-        <v>156.649946647362</v>
+        <v>160.997364926297</v>
       </c>
       <c r="I22" t="n">
-        <v>176.048409679076</v>
+        <v>792.397469004242</v>
       </c>
       <c r="J22" t="n">
-        <v>182.141090827108</v>
-      </c>
-      <c r="K22" t="n">
-        <v>277.181937735342</v>
-      </c>
-      <c r="L22" t="n">
-        <v>440.442663769059</v>
-      </c>
-      <c r="M22" t="n">
-        <v>498.848280929729</v>
-      </c>
-      <c r="N22" t="n">
-        <v>581.890274747454</v>
-      </c>
+        <v>414.071396965596</v>
+      </c>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
       <c r="O22"/>
       <c r="P22"/>
     </row>
@@ -27402,29 +27400,25 @@
       <c r="B23" t="s">
         <v>47</v>
       </c>
-      <c r="C23" t="n">
-        <v>185.440860069863</v>
-      </c>
-      <c r="D23" t="n">
-        <v>246.092690926978</v>
-      </c>
+      <c r="C23"/>
+      <c r="D23"/>
       <c r="E23" t="n">
-        <v>297.753992813416</v>
+        <v>1611.59928608297</v>
       </c>
       <c r="F23" t="n">
-        <v>319.078584976701</v>
+        <v>2237.22757189212</v>
       </c>
       <c r="G23" t="n">
-        <v>257.658839324904</v>
+        <v>2175.67662074271</v>
       </c>
       <c r="H23" t="n">
-        <v>160.997364926297</v>
+        <v>2612.61442106954</v>
       </c>
       <c r="I23" t="n">
-        <v>792.397469004242</v>
+        <v>2369.35474171628</v>
       </c>
       <c r="J23" t="n">
-        <v>414.071396965596</v>
+        <v>2806.2730405031</v>
       </c>
       <c r="K23"/>
       <c r="L23"/>
@@ -27440,27 +27434,33 @@
       <c r="B24" t="s">
         <v>49</v>
       </c>
-      <c r="C24"/>
-      <c r="D24"/>
+      <c r="C24" t="n">
+        <v>56.0929130583302</v>
+      </c>
+      <c r="D24" t="n">
+        <v>59.7892210097024</v>
+      </c>
       <c r="E24" t="n">
-        <v>1611.59928608297</v>
+        <v>42.8077053119083</v>
       </c>
       <c r="F24" t="n">
-        <v>2237.22757189212</v>
+        <v>32.1822582284326</v>
       </c>
       <c r="G24" t="n">
-        <v>2175.67662074271</v>
+        <v>57.7986618186288</v>
       </c>
       <c r="H24" t="n">
-        <v>2612.61442106954</v>
+        <v>46.991156264391</v>
       </c>
       <c r="I24" t="n">
-        <v>2369.35474171628</v>
+        <v>87.4367751462055</v>
       </c>
       <c r="J24" t="n">
-        <v>2806.2730405031</v>
-      </c>
-      <c r="K24"/>
+        <v>94.1663101671716</v>
+      </c>
+      <c r="K24" t="n">
+        <v>110.784234867142</v>
+      </c>
       <c r="L24"/>
       <c r="M24"/>
       <c r="N24"/>
@@ -27474,36 +27474,38 @@
       <c r="B25" t="s">
         <v>51</v>
       </c>
-      <c r="C25" t="n">
-        <v>56.0929130583302</v>
-      </c>
-      <c r="D25" t="n">
-        <v>59.7892210097024</v>
-      </c>
+      <c r="C25"/>
+      <c r="D25"/>
       <c r="E25" t="n">
-        <v>42.8077053119083</v>
+        <v>83.2691923837662</v>
       </c>
       <c r="F25" t="n">
-        <v>32.1822582284326</v>
+        <v>77.1960667409165</v>
       </c>
       <c r="G25" t="n">
-        <v>57.7986618186288</v>
+        <v>90.8352314952973</v>
       </c>
       <c r="H25" t="n">
-        <v>46.991156264391</v>
+        <v>106.77305077097</v>
       </c>
       <c r="I25" t="n">
-        <v>87.4367751462055</v>
+        <v>82.8959430540394</v>
       </c>
       <c r="J25" t="n">
-        <v>94.1663101671716</v>
+        <v>94.1876671748786</v>
       </c>
       <c r="K25" t="n">
-        <v>110.784234867142</v>
-      </c>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
+        <v>116.774180088649</v>
+      </c>
+      <c r="L25" t="n">
+        <v>148.852576492787</v>
+      </c>
+      <c r="M25" t="n">
+        <v>138.163793493765</v>
+      </c>
+      <c r="N25" t="n">
+        <v>132.523534942142</v>
+      </c>
       <c r="O25"/>
       <c r="P25"/>
     </row>
@@ -27514,37 +27516,41 @@
       <c r="B26" t="s">
         <v>53</v>
       </c>
-      <c r="C26"/>
-      <c r="D26"/>
+      <c r="C26" t="n">
+        <v>372.853857884381</v>
+      </c>
+      <c r="D26" t="n">
+        <v>590.411270069396</v>
+      </c>
       <c r="E26" t="n">
-        <v>83.2691923837662</v>
+        <v>453.028000039976</v>
       </c>
       <c r="F26" t="n">
-        <v>77.1960667409165</v>
+        <v>486.719946977599</v>
       </c>
       <c r="G26" t="n">
-        <v>90.8352314952973</v>
+        <v>554.814754116</v>
       </c>
       <c r="H26" t="n">
-        <v>106.77305077097</v>
+        <v>1037.26828706867</v>
       </c>
       <c r="I26" t="n">
-        <v>82.8959430540394</v>
+        <v>785.797505499209</v>
       </c>
       <c r="J26" t="n">
-        <v>94.1876671748786</v>
+        <v>722.960081208778</v>
       </c>
       <c r="K26" t="n">
-        <v>116.774180088649</v>
+        <v>657.412832377557</v>
       </c>
       <c r="L26" t="n">
-        <v>148.852576492787</v>
+        <v>499.987038573206</v>
       </c>
       <c r="M26" t="n">
-        <v>138.163793493765</v>
+        <v>1258.95394684589</v>
       </c>
       <c r="N26" t="n">
-        <v>132.523534942142</v>
+        <v>1217.59639392061</v>
       </c>
       <c r="O26"/>
       <c r="P26"/>
@@ -27557,40 +27563,40 @@
         <v>55</v>
       </c>
       <c r="C27" t="n">
-        <v>372.853857884381</v>
+        <v>7.83776595802144</v>
       </c>
       <c r="D27" t="n">
-        <v>590.411270069396</v>
+        <v>8.74562444898142</v>
       </c>
       <c r="E27" t="n">
-        <v>453.028000039976</v>
+        <v>9.81766357557228</v>
       </c>
       <c r="F27" t="n">
-        <v>486.719946977599</v>
+        <v>10.6024792208941</v>
       </c>
       <c r="G27" t="n">
-        <v>554.814754116</v>
+        <v>13.8991276014533</v>
       </c>
       <c r="H27" t="n">
-        <v>1037.26828706867</v>
+        <v>18.5456788407294</v>
       </c>
       <c r="I27" t="n">
-        <v>785.797505499209</v>
+        <v>17.1552114261196</v>
       </c>
       <c r="J27" t="n">
-        <v>722.960081208778</v>
+        <v>19.5685265105146</v>
       </c>
       <c r="K27" t="n">
-        <v>657.412832377557</v>
+        <v>20.5951795701657</v>
       </c>
       <c r="L27" t="n">
-        <v>499.987038573206</v>
+        <v>21.4976549490399</v>
       </c>
       <c r="M27" t="n">
-        <v>1258.95394684589</v>
+        <v>22.2530897987204</v>
       </c>
       <c r="N27" t="n">
-        <v>1217.59639392061</v>
+        <v>30.4675691047069</v>
       </c>
       <c r="O27"/>
       <c r="P27"/>
@@ -27603,42 +27609,44 @@
         <v>57</v>
       </c>
       <c r="C28" t="n">
-        <v>7.83776595802144</v>
+        <v>57.6253928214129</v>
       </c>
       <c r="D28" t="n">
-        <v>8.74562444898142</v>
+        <v>92.5414730722518</v>
       </c>
       <c r="E28" t="n">
-        <v>9.81766357557228</v>
+        <v>160.384857629497</v>
       </c>
       <c r="F28" t="n">
-        <v>10.6024792208941</v>
+        <v>251.928123460172</v>
       </c>
       <c r="G28" t="n">
-        <v>13.8991276014533</v>
+        <v>194.252211373063</v>
       </c>
       <c r="H28" t="n">
-        <v>18.5456788407294</v>
+        <v>250.417414203261</v>
       </c>
       <c r="I28" t="n">
-        <v>17.1552114261196</v>
+        <v>248.634063146282</v>
       </c>
       <c r="J28" t="n">
-        <v>19.5685265105146</v>
+        <v>213.726146021572</v>
       </c>
       <c r="K28" t="n">
-        <v>20.5951795701657</v>
+        <v>277.622286006932</v>
       </c>
       <c r="L28" t="n">
-        <v>21.4976549490399</v>
+        <v>352.496913619377</v>
       </c>
       <c r="M28" t="n">
-        <v>22.2530897987204</v>
+        <v>355.958599228552</v>
       </c>
       <c r="N28" t="n">
-        <v>30.4675691047069</v>
-      </c>
-      <c r="O28"/>
+        <v>456.781957922147</v>
+      </c>
+      <c r="O28" t="n">
+        <v>307.999804466357</v>
+      </c>
       <c r="P28"/>
     </row>
     <row r="29">
@@ -27648,45 +27656,21 @@
       <c r="B29" t="s">
         <v>59</v>
       </c>
-      <c r="C29" t="n">
-        <v>57.6253928214129</v>
-      </c>
-      <c r="D29" t="n">
-        <v>92.5414730722518</v>
-      </c>
-      <c r="E29" t="n">
-        <v>160.384857629497</v>
-      </c>
-      <c r="F29" t="n">
-        <v>251.928123460172</v>
-      </c>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
       <c r="G29" t="n">
-        <v>194.252211373063</v>
-      </c>
-      <c r="H29" t="n">
-        <v>250.417414203261</v>
-      </c>
-      <c r="I29" t="n">
-        <v>248.634063146282</v>
-      </c>
-      <c r="J29" t="n">
-        <v>213.726146021572</v>
-      </c>
-      <c r="K29" t="n">
-        <v>277.622286006932</v>
-      </c>
-      <c r="L29" t="n">
-        <v>352.496913619377</v>
-      </c>
-      <c r="M29" t="n">
-        <v>355.958599228552</v>
-      </c>
-      <c r="N29" t="n">
-        <v>456.781957922147</v>
-      </c>
-      <c r="O29" t="n">
-        <v>307.999804466357</v>
-      </c>
+        <v>133.890546215645</v>
+      </c>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
       <c r="P29"/>
     </row>
     <row r="30">
@@ -27700,16 +27684,28 @@
       <c r="D30"/>
       <c r="E30"/>
       <c r="F30"/>
-      <c r="G30" t="n">
-        <v>133.890546215645</v>
-      </c>
-      <c r="H30"/>
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
-      <c r="N30"/>
+      <c r="G30"/>
+      <c r="H30" t="n">
+        <v>990.261263001076</v>
+      </c>
+      <c r="I30" t="n">
+        <v>276.77456800385</v>
+      </c>
+      <c r="J30" t="n">
+        <v>95.1883168491256</v>
+      </c>
+      <c r="K30" t="n">
+        <v>313.643785184298</v>
+      </c>
+      <c r="L30" t="n">
+        <v>214.49562443868</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1157.52902437086</v>
+      </c>
+      <c r="N30" t="n">
+        <v>255.299477173516</v>
+      </c>
       <c r="O30"/>
       <c r="P30"/>
     </row>
@@ -27720,33 +27716,45 @@
       <c r="B31" t="s">
         <v>63</v>
       </c>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
+      <c r="C31" t="n">
+        <v>567.372873354859</v>
+      </c>
+      <c r="D31" t="n">
+        <v>483.494123097025</v>
+      </c>
+      <c r="E31" t="n">
+        <v>395.642149993219</v>
+      </c>
+      <c r="F31" t="n">
+        <v>482.043472743424</v>
+      </c>
+      <c r="G31" t="n">
+        <v>467.344020022645</v>
+      </c>
       <c r="H31" t="n">
-        <v>990.261263001076</v>
+        <v>553.711401523836</v>
       </c>
       <c r="I31" t="n">
-        <v>276.77456800385</v>
+        <v>538.576745144454</v>
       </c>
       <c r="J31" t="n">
-        <v>95.1883168491256</v>
+        <v>1666.14469151268</v>
       </c>
       <c r="K31" t="n">
-        <v>313.643785184298</v>
+        <v>1180.64518699109</v>
       </c>
       <c r="L31" t="n">
-        <v>214.49562443868</v>
+        <v>1175.93303988471</v>
       </c>
       <c r="M31" t="n">
-        <v>1157.52902437086</v>
+        <v>3005.11619991039</v>
       </c>
       <c r="N31" t="n">
-        <v>255.299477173516</v>
-      </c>
-      <c r="O31"/>
+        <v>1197.09469153515</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1029.107353269</v>
+      </c>
       <c r="P31"/>
     </row>
     <row r="32">
@@ -27757,44 +27765,36 @@
         <v>65</v>
       </c>
       <c r="C32" t="n">
-        <v>567.372873354859</v>
+        <v>168.683981593069</v>
       </c>
       <c r="D32" t="n">
-        <v>483.494123097025</v>
+        <v>110.736075872901</v>
       </c>
       <c r="E32" t="n">
-        <v>395.642149993219</v>
+        <v>445.801462082663</v>
       </c>
       <c r="F32" t="n">
-        <v>482.043472743424</v>
+        <v>111.092688907891</v>
       </c>
       <c r="G32" t="n">
-        <v>467.344020022645</v>
+        <v>76.5624982595443</v>
       </c>
       <c r="H32" t="n">
-        <v>553.711401523836</v>
+        <v>46.7698726313441</v>
       </c>
       <c r="I32" t="n">
-        <v>538.576745144454</v>
+        <v>65.3607487575805</v>
       </c>
       <c r="J32" t="n">
-        <v>1666.14469151268</v>
+        <v>50.2658173879085</v>
       </c>
       <c r="K32" t="n">
-        <v>1180.64518699109</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1175.93303988471</v>
-      </c>
-      <c r="M32" t="n">
-        <v>3005.11619991039</v>
-      </c>
-      <c r="N32" t="n">
-        <v>1197.09469153515</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1029.107353269</v>
-      </c>
+        <v>121.814936606468</v>
+      </c>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
       <c r="P32"/>
     </row>
     <row r="33">
